--- a/documentation-generator/vocab_csv/gdpr.xlsx
+++ b/documentation-generator/vocab_csv/gdpr.xlsx
@@ -1571,7 +1571,7 @@
     <t>State of being lawful or legally compliant for GDPR</t>
   </si>
   <si>
-    <t>dpv-gdpr:GDPRLawulness</t>
+    <t>dpv-gdpr:GDPRLawfulness</t>
   </si>
   <si>
     <t>GDPRNonCompliant</t>
@@ -2271,10 +2271,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C2" sqref="C2" pane="topRight"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -5358,12 +5355,7 @@
       <c r="AF13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="M14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
@@ -14136,7 +14128,7 @@
       <c r="C4" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>483</v>
       </c>
       <c r="E4" s="54" t="s">
@@ -14184,7 +14176,7 @@
       <c r="C5" s="54" t="s">
         <v>486</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>483</v>
       </c>
       <c r="E5" s="54" t="s">
@@ -14232,7 +14224,7 @@
       <c r="C6" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>483</v>
       </c>
       <c r="E6" s="54" t="s">
